--- a/03.新規プロジェクト作成/Kai9Tempate利用手順.xlsx
+++ b/03.新規プロジェクト作成/Kai9Tempate利用手順.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d30bd01ee33075e8/work/25.java/01.kai9文書/03.新規プロジェクト作成/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="674" documentId="8_{C282B4AF-1139-4D3C-B549-BE38F8269C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DE43634-CF4B-45F3-B488-55CAE5E16FE4}"/>
+  <xr:revisionPtr revIDLastSave="700" documentId="8_{C282B4AF-1139-4D3C-B549-BE38F8269C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1CA8D4D-0C12-48B3-8F36-BBEBB2A95EE1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="358">
   <si>
     <t>プロジェクトの雛形をコピー</t>
     <rPh sb="7" eb="9">
@@ -1931,6 +1931,952 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>src/non_common/types/Form.types.ts</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>置換</t>
+    <rPh sb="0" eb="2">
+      <t>チカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>src\main\java\kai9\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>tmpl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> のフォルダ名を書き換える</t>
+    </r>
+    <rPh sb="29" eb="30">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kai9XXXX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>src\main\java\kai9\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>XXXX</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>eclipseで「Ctrl+H」を押し、一括置換する。</t>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>チカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*.java</t>
+  </si>
+  <si>
+    <t>kai9.tmpl</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>kai9.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>xxxx</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デバッグモードで起動</t>
+    <rPh sb="8" eb="10">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロジェクトエクスプローラ(ウィンドウ → ビューの表示 →プロジェクト・エクスプローラ)で、プロジェクトを右クリックする。</t>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デバッグ → Spring Bootアプリケーション を押す</t>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニューの「実行」→「デバッグ構成」</t>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JASYPT_ENCRYPTOR_PASSWORD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kai9passphrase</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注意事項）</t>
+    <rPh sb="0" eb="2">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この環境変数は、kai9com、kai9autoの動作するサーバで同じ値にする事。</t>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>異なる場合、Kai9comの自動ソース生成内の、「kai9autoで用いる自動テストユーザのパスワードを暗号化、複合化する処理」が失敗する。</t>
+    <rPh sb="21" eb="22">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実環境で使う時は、OSの環境変数に「パスフレーズ」を設定し、それをJavaが読み込む事で、複合化する。</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>フクゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Eclipseでの開発中は、デバッグ構成に入れる事で、同じ事を実現。</t>
+    <rPh sb="9" eb="11">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※この値をそのまま使わず、自分用のパスフレーズに書き換える事。</t>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ジブンヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これを入れればOK(絵の値mypasswordは「kai9passphrase」)</t>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>eclipseの環境変数を追加</t>
+  </si>
+  <si>
+    <t>シークレットキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何でも良いので、14～20文字程度の文字列を暗号化する。(暗号化方法は、下記「jasyptツールで文字列を暗号化」を参照)</t>
+    <rPh sb="0" eb="1">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シークレットキーは、フロントエンドに渡すtoken(JWT)生成で内部的に使われる。</t>
+    <rPh sb="18" eb="19">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ナイブテキ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【kai9】起動完了　が出ればOK</t>
+    <rPh sb="6" eb="8">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VsCodeでプロジェクトを開き、デバッグ(F5)実行</t>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kai9comがデバッグモードで動作するように、下記文書のシート1、2、3を実施して下さい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kai9comを使える状態にする方法</t>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://github.com/kai9jp/kai9_doc/blob/main/01.環境構築/1bgナレッジ【Kai9-React-Java】.xlsm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pom.xml</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>kai9tmplをkai9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>xxxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　に置換(2箇所)</t>
+    </r>
+    <rPh sb="19" eb="21">
+      <t>チカン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ワークスペースごとに設定が必要</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウィンドウ → 設定</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォーマッターの設定</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>既存コードは</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(Ctrl+Shift+F)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> でタブを全てスペースに変えてくれる</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(Ctrl+Shift+F)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> でkai9用のフォーマッターを適用できる。</t>
+    </r>
+    <rPh sb="20" eb="21">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EclipseのJavaフォーマッターは、Javaコードの書式を統一するための機能。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コードのインデントやスペースの使い方、改行の位置などを設定し、自動的に整形することが可能。</t>
+    <rPh sb="42" eb="44">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これにより、開発チーム内でコードの見た目を統一したり、可読性を向上させたりすることが出来る。</t>
+    <rPh sb="42" eb="44">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kai9tmpl_java/Eclipseフォーマッター.xml at main · kai9jp/kai9tmpl_java</t>
+  </si>
+  <si>
+    <t>下記githubからダウンロードしたファイルをインポートする</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最後に適用して閉じれば反映される</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規 → kai9 を作成 → 編集</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→ OK押下</t>
+    <rPh sb="4" eb="6">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すでに折り返された行を結合しない　にチェックを付ける事。</t>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これを行わないと、下記の様に変わってしまう。</t>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>where  =  " and("</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            where = " and("</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //【制御:開始】カラム:件数を返す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    //【制御:開始】カラム:件数を返す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    + " natural_key1 ~~* any(array["+ str +"])"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    + " natural_key1 ~~* any(array[" + str + "])" + " or" + " natural_key21 ~~* any(array[" + str + "])"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    + " or"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    + " or" + " natural_key22_33 ~~* any(array[" + str + "])" + " or" + " natural_key31 ~~* any(array["</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    + " natural_key21 ~~* any(array["+ str +"])"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    + str + "])" + " or" + " natural_key32 ~~* any(array[" + str + "])" + " or"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    + " fullwidth_limited ~~* any(array[" + str + "])" + " or" + " halfwidth_limited ~~* any(array["</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    + " natural_key22_33 ~~* any(array["+ str +"])"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    + str + "])" + " or" + " halfwidth_alphabetical_limited ~~* any(array[" + str + "])" + " or"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    + " halfwidth_number_limited ~~* any(array[" + str + "])" + " or"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    + " natural_key31 ~~* any(array["+ str +"])"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    + " halfwidth_symbol_limited ~~* any(array[" + str + "])" + " or"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    + " halfwidth_kana_limited ~~* any(array[" + str + "])" + " or"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    + " natural_key32 ~~* any(array["+ str +"])"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    + " fullwidth_kana_limited ~~* any(array[" + str + "])" + " or" + " normal_string ~~* any(array["</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    + str + "])" + " or" + " postal_code ~~* any(array[" + str + "])" + " or"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    + " fullwidth_limited ~~* any(array["+ str +"])"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    + " phone_number ~~* any(array[" + str + "])" + " or" + " email_address ~~* any(array[" + str + "])"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    + " or" + " url ~~* any(array[" + str + "])" + " or" + " regexp ~~* any(array[" + str + "])" + " or"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    + " halfwidth_limited ~~* any(array["+ str +"])"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    + " memo ~~* any(array[" + str + "])"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    //【制御:終了】カラム:件数を返す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    + " halfwidth_alphabetical_limited ~~* any(array["+ str +"])"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    //【制御:開始】relationSQL⑧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    + " or" + " related_table_a.related_data ~~* any(array[" + str + "])"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    + " halfwidth_number_limited ~~* any(array["+ str +"])"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    //【制御:終了】relationSQL⑧</t>
+  </si>
+  <si>
+    <t>中略</t>
+    <rPh sb="0" eb="2">
+      <t>チュウリャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                    + ")";</t>
+  </si>
+  <si>
+    <t>自動折り返しを無効にしたいので、9999にする。</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>if (maxValue1 == 0) return 0;</t>
+  </si>
+  <si>
+    <t>が、</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (maxValue1 == 0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return 0;</t>
+  </si>
+  <si>
+    <t>になってしまうのを防ぐ</t>
+  </si>
+  <si>
+    <t>コメントの意味のある改行が、勝手に改行されないように大きな数字にする</t>
+    <rPh sb="5" eb="7">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>* 仕様</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* </t>
+  </si>
+  <si>
+    <t>* １．ユニークインデックス名、対象カラム名を取得(バックエンドで取得し、フロントエンドへ伝える)</t>
+  </si>
+  <si>
+    <t>* ２．ユニークインデックス名、対象カラムのデータを送信(フロントエンドから送信)</t>
+  </si>
+  <si>
+    <t>* ３．各ユニークインデックスにマッチする、SQLを作成し重複データを検索(バックエンドで実施)</t>
+  </si>
+  <si>
+    <t>* ４．重複しているデータがあれば結果を返す(バックエンドで実施)</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 仕様</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * １．ユニークインデックス名、対象カラム名を取得(バックエンドで取得し、フロントエンドへ伝える) ２．ユニークインデックス名、対象カラムのデータを送信(フロントエンドから送信) ３．各ユニークインデックスにマッチする、SQLを作成し重複データを検索(バックエンドで実施) ４．重複しているデータがあれば結果を返す(バックエンドで実施)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>になり、改行が無くなることを予防</t>
+  </si>
+  <si>
+    <t>フォーマッターの設定内容</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※eclipseのバージョン相違等でインポートできない場合、「フォーマッター」シートを参照し、手動設定する事</t>
+    <rPh sb="14" eb="16">
+      <t>ソウイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>src\non_common\config.ts</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成するプロジェクト名に書き換える</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>src\components\TopMenu\TopMenu.tsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{/* ロゴ横の文字 */}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>export const APP_TITLE = "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Kai9 Som</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>";</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;div className={`${styles.kai9text} mx-3`}&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Kai9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;sup&gt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Som</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/sup&gt;&lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
       <t>proxy: "https://</t>
     </r>
@@ -1942,7 +2888,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>kai9tmpl</t>
+      <t>kai9som</t>
     </r>
     <r>
       <rPr>
@@ -1988,7 +2934,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>3004</t>
+      <t>3006</t>
     </r>
     <r>
       <rPr>
@@ -2000,852 +2946,6 @@
       </rPr>
       <t>&amp;&amp;react-scripts start",</t>
     </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>src/non_common/types/Form.types.ts</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>置換</t>
-    <rPh sb="0" eb="2">
-      <t>チカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>src\main\java\kai9\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>tmpl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> のフォルダ名を書き換える</t>
-    </r>
-    <rPh sb="29" eb="30">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>kai9XXXX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>src\main\java\kai9\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>XXXX</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>eclipseで「Ctrl+H」を押し、一括置換する。</t>
-    <rPh sb="17" eb="18">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イッカツ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>チカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>*.java</t>
-  </si>
-  <si>
-    <t>kai9.tmpl</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>kai9.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>xxxx</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>デバッグモードで起動</t>
-    <rPh sb="8" eb="10">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プロジェクトエクスプローラ(ウィンドウ → ビューの表示 →プロジェクト・エクスプローラ)で、プロジェクトを右クリックする。</t>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>デバッグ → Spring Bootアプリケーション を押す</t>
-    <rPh sb="28" eb="29">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メニューの「実行」→「デバッグ構成」</t>
-    <rPh sb="6" eb="8">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>変数名</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンスウメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JASYPT_ENCRYPTOR_PASSWORD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>値</t>
-    <rPh sb="0" eb="1">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>kai9passphrase</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>注意事項）</t>
-    <rPh sb="0" eb="2">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>この環境変数は、kai9com、kai9autoの動作するサーバで同じ値にする事。</t>
-    <rPh sb="2" eb="4">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>異なる場合、Kai9comの自動ソース生成内の、「kai9autoで用いる自動テストユーザのパスワードを暗号化、複合化する処理」が失敗する。</t>
-    <rPh sb="21" eb="22">
-      <t>ナイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>実環境で使う時は、OSの環境変数に「パスフレーズ」を設定し、それをJavaが読み込む事で、複合化する。</t>
-    <rPh sb="0" eb="1">
-      <t>ジツ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="45" eb="48">
-      <t>フクゴウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Eclipseでの開発中は、デバッグ構成に入れる事で、同じ事を実現。</t>
-    <rPh sb="9" eb="11">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ジツゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※この値をそのまま使わず、自分用のパスフレーズに書き換える事。</t>
-    <rPh sb="3" eb="4">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ジブンヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>これを入れればOK(絵の値mypasswordは「kai9passphrase」)</t>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>eclipseの環境変数を追加</t>
-  </si>
-  <si>
-    <t>シークレットキー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>何でも良いので、14～20文字程度の文字列を暗号化する。(暗号化方法は、下記「jasyptツールで文字列を暗号化」を参照)</t>
-    <rPh sb="0" eb="1">
-      <t>ナン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>アンゴウカ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>アンゴウカ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>シークレットキーは、フロントエンドに渡すtoken(JWT)生成で内部的に使われる。</t>
-    <rPh sb="18" eb="19">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>ナイブテキ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>【kai9】起動完了　が出ればOK</t>
-    <rPh sb="6" eb="8">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VsCodeでプロジェクトを開き、デバッグ(F5)実行</t>
-    <rPh sb="14" eb="15">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>kai9comがデバッグモードで動作するように、下記文書のシート1、2、3を実施して下さい</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>kai9comを使える状態にする方法</t>
-    <rPh sb="8" eb="9">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://github.com/kai9jp/kai9_doc/blob/main/01.環境構築/1bgナレッジ【Kai9-React-Java】.xlsm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pom.xml</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>kai9tmplをkai9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>xxxx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　に置換(2箇所)</t>
-    </r>
-    <rPh sb="19" eb="21">
-      <t>チカン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※ワークスペースごとに設定が必要</t>
-    <rPh sb="11" eb="13">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ウィンドウ → 設定</t>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>フォーマッターの設定</t>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>既存コードは</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(Ctrl+Shift+F)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> でタブを全てスペースに変えてくれる</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(Ctrl+Shift+F)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> でkai9用のフォーマッターを適用できる。</t>
-    </r>
-    <rPh sb="20" eb="21">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>テキヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EclipseのJavaフォーマッターは、Javaコードの書式を統一するための機能。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コードのインデントやスペースの使い方、改行の位置などを設定し、自動的に整形することが可能。</t>
-    <rPh sb="42" eb="44">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>これにより、開発チーム内でコードの見た目を統一したり、可読性を向上させたりすることが出来る。</t>
-    <rPh sb="42" eb="44">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>kai9tmpl_java/Eclipseフォーマッター.xml at main · kai9jp/kai9tmpl_java</t>
-  </si>
-  <si>
-    <t>下記githubからダウンロードしたファイルをインポートする</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>最後に適用して閉じれば反映される</t>
-    <rPh sb="0" eb="2">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>テキヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新規 → kai9 を作成 → 編集</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>→ OK押下</t>
-    <rPh sb="4" eb="6">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>すでに折り返された行を結合しない　にチェックを付ける事。</t>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケツゴウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>これを行わないと、下記の様に変わってしまう。</t>
-    <rPh sb="3" eb="4">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        </t>
-  </si>
-  <si>
-    <t>where  =  " and("</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            where = " and("</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //【制御:開始】カラム:件数を返す</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    //【制御:開始】カラム:件数を返す</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    + " natural_key1 ~~* any(array["+ str +"])"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    + " natural_key1 ~~* any(array[" + str + "])" + " or" + " natural_key21 ~~* any(array[" + str + "])"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    + " or"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    + " or" + " natural_key22_33 ~~* any(array[" + str + "])" + " or" + " natural_key31 ~~* any(array["</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    + " natural_key21 ~~* any(array["+ str +"])"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    + str + "])" + " or" + " natural_key32 ~~* any(array[" + str + "])" + " or"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    + " fullwidth_limited ~~* any(array[" + str + "])" + " or" + " halfwidth_limited ~~* any(array["</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    + " natural_key22_33 ~~* any(array["+ str +"])"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    + str + "])" + " or" + " halfwidth_alphabetical_limited ~~* any(array[" + str + "])" + " or"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    + " halfwidth_number_limited ~~* any(array[" + str + "])" + " or"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    + " natural_key31 ~~* any(array["+ str +"])"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    + " halfwidth_symbol_limited ~~* any(array[" + str + "])" + " or"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    + " halfwidth_kana_limited ~~* any(array[" + str + "])" + " or"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    + " natural_key32 ~~* any(array["+ str +"])"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    + " fullwidth_kana_limited ~~* any(array[" + str + "])" + " or" + " normal_string ~~* any(array["</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    + str + "])" + " or" + " postal_code ~~* any(array[" + str + "])" + " or"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    + " fullwidth_limited ~~* any(array["+ str +"])"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    + " phone_number ~~* any(array[" + str + "])" + " or" + " email_address ~~* any(array[" + str + "])"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    + " or" + " url ~~* any(array[" + str + "])" + " or" + " regexp ~~* any(array[" + str + "])" + " or"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    + " halfwidth_limited ~~* any(array["+ str +"])"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    + " memo ~~* any(array[" + str + "])"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    //【制御:終了】カラム:件数を返す</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    + " halfwidth_alphabetical_limited ~~* any(array["+ str +"])"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    //【制御:開始】relationSQL⑧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    + " or" + " related_table_a.related_data ~~* any(array[" + str + "])"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    + " halfwidth_number_limited ~~* any(array["+ str +"])"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    //【制御:終了】relationSQL⑧</t>
-  </si>
-  <si>
-    <t>中略</t>
-    <rPh sb="0" eb="2">
-      <t>チュウリャク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                    + ")";</t>
-  </si>
-  <si>
-    <t>自動折り返しを無効にしたいので、9999にする。</t>
-    <rPh sb="0" eb="2">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ムコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>if (maxValue1 == 0) return 0;</t>
-  </si>
-  <si>
-    <t>が、</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if (maxValue1 == 0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return 0;</t>
-  </si>
-  <si>
-    <t>になってしまうのを防ぐ</t>
-  </si>
-  <si>
-    <t>コメントの意味のある改行が、勝手に改行されないように大きな数字にする</t>
-    <rPh sb="5" eb="7">
-      <t>イミ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カイギョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カッテ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カイギョウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>スウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>* 仕様</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* </t>
-  </si>
-  <si>
-    <t>* １．ユニークインデックス名、対象カラム名を取得(バックエンドで取得し、フロントエンドへ伝える)</t>
-  </si>
-  <si>
-    <t>* ２．ユニークインデックス名、対象カラムのデータを送信(フロントエンドから送信)</t>
-  </si>
-  <si>
-    <t>* ３．各ユニークインデックスにマッチする、SQLを作成し重複データを検索(バックエンドで実施)</t>
-  </si>
-  <si>
-    <t>* ４．重複しているデータがあれば結果を返す(バックエンドで実施)</t>
-  </si>
-  <si>
-    <t>*/</t>
-  </si>
-  <si>
-    <t>/**</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * 仕様</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * １．ユニークインデックス名、対象カラム名を取得(バックエンドで取得し、フロントエンドへ伝える) ２．ユニークインデックス名、対象カラムのデータを送信(フロントエンドから送信) ３．各ユニークインデックスにマッチする、SQLを作成し重複データを検索(バックエンドで実施) ４．重複しているデータがあれば結果を返す(バックエンドで実施)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> */</t>
-  </si>
-  <si>
-    <t>になり、改行が無くなることを予防</t>
-  </si>
-  <si>
-    <t>フォーマッターの設定内容</t>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※eclipseのバージョン相違等でインポートできない場合、「フォーマッター」シートを参照し、手動設定する事</t>
-    <rPh sb="14" eb="16">
-      <t>ソウイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>シュドウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>コト</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3071,7 +3171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3097,8 +3197,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4295,13 +4393,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>523</xdr:row>
+      <xdr:row>532</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152944</xdr:colOff>
-      <xdr:row>538</xdr:row>
+      <xdr:row>547</xdr:row>
       <xdr:rowOff>124258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4339,13 +4437,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>530</xdr:row>
+      <xdr:row>539</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>25658</xdr:colOff>
-      <xdr:row>533</xdr:row>
+      <xdr:row>542</xdr:row>
       <xdr:rowOff>10999</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4399,13 +4497,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>523</xdr:row>
+      <xdr:row>532</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>525</xdr:row>
+      <xdr:row>534</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4465,13 +4563,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>523</xdr:row>
+      <xdr:row>532</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>541</xdr:row>
+      <xdr:row>550</xdr:row>
       <xdr:rowOff>114760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4509,13 +4607,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>544</xdr:row>
+      <xdr:row>553</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>114844</xdr:colOff>
-      <xdr:row>560</xdr:row>
+      <xdr:row>569</xdr:row>
       <xdr:rowOff>38533</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4553,13 +4651,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>547</xdr:row>
+      <xdr:row>556</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>559</xdr:row>
+      <xdr:row>568</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4803,13 +4901,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>578</xdr:row>
+      <xdr:row>587</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>20872</xdr:colOff>
-      <xdr:row>587</xdr:row>
+      <xdr:row>596</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4847,13 +4945,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>585</xdr:row>
+      <xdr:row>594</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>586</xdr:row>
+      <xdr:row>595</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4913,13 +5011,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>578</xdr:row>
+      <xdr:row>587</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>596</xdr:row>
+      <xdr:row>605</xdr:row>
       <xdr:rowOff>43600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4957,13 +5055,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>584</xdr:row>
+      <xdr:row>593</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>594</xdr:row>
+      <xdr:row>603</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5023,13 +5121,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>596</xdr:row>
+      <xdr:row>605</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>267838</xdr:colOff>
-      <xdr:row>619</xdr:row>
+      <xdr:row>628</xdr:row>
       <xdr:rowOff>95881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5067,13 +5165,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>604</xdr:row>
+      <xdr:row>613</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>618</xdr:row>
+      <xdr:row>627</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5133,13 +5231,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1452</xdr:colOff>
-      <xdr:row>594</xdr:row>
+      <xdr:row>603</xdr:row>
       <xdr:rowOff>92602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>253864</xdr:colOff>
-      <xdr:row>604</xdr:row>
+      <xdr:row>613</xdr:row>
       <xdr:rowOff>133707</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5193,13 +5291,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>638</xdr:row>
+      <xdr:row>647</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>134622</xdr:colOff>
-      <xdr:row>642</xdr:row>
+      <xdr:row>651</xdr:row>
       <xdr:rowOff>114422</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5237,13 +5335,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>638</xdr:row>
+      <xdr:row>647</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>640</xdr:row>
+      <xdr:row>649</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5303,13 +5401,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>656</xdr:row>
+      <xdr:row>665</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>667</xdr:row>
+      <xdr:row>676</xdr:row>
       <xdr:rowOff>42653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5347,13 +5445,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>645</xdr:row>
+      <xdr:row>654</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>152857</xdr:colOff>
-      <xdr:row>650</xdr:row>
+      <xdr:row>659</xdr:row>
       <xdr:rowOff>95380</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5391,13 +5489,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>648</xdr:row>
+      <xdr:row>657</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>650</xdr:row>
+      <xdr:row>659</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5457,13 +5555,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>646</xdr:row>
+      <xdr:row>655</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>238501</xdr:colOff>
-      <xdr:row>650</xdr:row>
+      <xdr:row>659</xdr:row>
       <xdr:rowOff>66793</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5501,13 +5599,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>647</xdr:row>
+      <xdr:row>656</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>263783</xdr:colOff>
-      <xdr:row>650</xdr:row>
+      <xdr:row>659</xdr:row>
       <xdr:rowOff>153874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5561,13 +5659,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>648</xdr:row>
+      <xdr:row>657</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>650</xdr:row>
+      <xdr:row>659</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5627,13 +5725,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>671</xdr:row>
+      <xdr:row>680</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>135171</xdr:colOff>
-      <xdr:row>680</xdr:row>
+      <xdr:row>689</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5671,13 +5769,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>677</xdr:row>
+      <xdr:row>686</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>678</xdr:row>
+      <xdr:row>687</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9621,10 +9719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AK693"/>
+  <dimension ref="B2:AK702"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="Q268" sqref="Q268"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="F368" sqref="F368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="15.75"/>
@@ -9918,7 +10016,7 @@
     </row>
     <row r="43" spans="4:25">
       <c r="E43" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L43" s="4"/>
     </row>
@@ -9972,15 +10070,15 @@
     </row>
     <row r="55" spans="4:8">
       <c r="D55" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="4:8">
       <c r="H56" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="4:8">
@@ -10688,7 +10786,7 @@
     </row>
     <row r="101" spans="4:26">
       <c r="D101" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -10714,7 +10812,7 @@
     </row>
     <row r="103" spans="4:26">
       <c r="D103" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L103" s="4" t="s">
         <v>28</v>
@@ -10803,7 +10901,7 @@
     </row>
     <row r="119" spans="4:31">
       <c r="D119" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -10829,12 +10927,12 @@
     </row>
     <row r="121" spans="4:31">
       <c r="D121" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="122" spans="4:31">
       <c r="D122" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H122" s="4"/>
       <c r="K122" s="4" t="s">
@@ -10843,15 +10941,15 @@
     </row>
     <row r="124" spans="4:31">
       <c r="D124" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="4:31">
       <c r="N128" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AE128" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="4:31">
@@ -10861,7 +10959,7 @@
     </row>
     <row r="131" spans="4:31">
       <c r="N131" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="141" spans="4:31">
@@ -10897,17 +10995,17 @@
     </row>
     <row r="145" spans="5:6">
       <c r="E145" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="146" spans="5:6">
       <c r="F146" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="147" spans="5:6" ht="18.75">
       <c r="F147" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="194" spans="4:4">
@@ -10930,7 +11028,7 @@
     </row>
     <row r="247" spans="4:31">
       <c r="D247" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
@@ -10956,7 +11054,7 @@
     </row>
     <row r="249" spans="4:31" ht="18.75">
       <c r="E249" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
@@ -10987,7 +11085,7 @@
     </row>
     <row r="250" spans="4:31" ht="18.75">
       <c r="E250" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
@@ -11047,7 +11145,7 @@
     </row>
     <row r="252" spans="4:31" ht="18.75">
       <c r="E252" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -11078,11 +11176,11 @@
     </row>
     <row r="253" spans="4:31" ht="18.75">
       <c r="E253" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F253" s="5"/>
       <c r="G253" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
@@ -11091,16 +11189,16 @@
       <c r="L253" s="5"/>
       <c r="M253" s="5"/>
       <c r="N253" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O253" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P253" s="15"/>
       <c r="Q253" s="5"/>
       <c r="S253" s="5"/>
       <c r="T253" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="U253" s="5"/>
       <c r="V253" s="5"/>
@@ -11304,7 +11402,7 @@
       <c r="Q260" s="5"/>
       <c r="R260" s="5"/>
       <c r="S260" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T260" s="5"/>
       <c r="U260" s="5"/>
@@ -11379,7 +11477,7 @@
     </row>
     <row r="263" spans="4:31" ht="18.75">
       <c r="E263" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
@@ -11410,7 +11508,7 @@
     </row>
     <row r="264" spans="4:31" ht="18.75">
       <c r="E264" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
@@ -11441,7 +11539,7 @@
     </row>
     <row r="265" spans="4:31" ht="18.75">
       <c r="E265" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
@@ -11472,7 +11570,7 @@
     </row>
     <row r="267" spans="4:31">
       <c r="D267" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
@@ -11498,7 +11596,7 @@
     </row>
     <row r="268" spans="4:31" ht="18.75">
       <c r="D268" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F268" s="5"/>
       <c r="G268" s="5"/>
@@ -11519,7 +11617,7 @@
     <row r="269" spans="4:31" ht="18.75">
       <c r="D269" s="5"/>
       <c r="E269" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F269" s="17"/>
       <c r="G269" s="17"/>
@@ -11545,54 +11643,50 @@
     <row r="270" spans="4:31" ht="18.75">
       <c r="D270" s="5"/>
       <c r="E270" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="F270" s="21"/>
-      <c r="G270" s="21"/>
-      <c r="H270" s="21"/>
-      <c r="I270" s="21"/>
-      <c r="J270" s="21"/>
-      <c r="K270" s="21"/>
-      <c r="L270" s="21"/>
-      <c r="M270" s="21"/>
-      <c r="N270" s="21"/>
-      <c r="O270" s="21"/>
-      <c r="P270" s="21"/>
-      <c r="Q270" s="21"/>
-      <c r="R270" s="21"/>
-      <c r="S270" s="21"/>
-      <c r="T270" s="21"/>
-      <c r="U270" s="22"/>
-      <c r="V270" s="22"/>
-      <c r="W270" s="22"/>
-      <c r="X270" s="22"/>
-      <c r="Y270" s="23"/>
+        <v>284</v>
+      </c>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="5"/>
+      <c r="I270" s="5"/>
+      <c r="J270" s="5"/>
+      <c r="K270" s="5"/>
+      <c r="L270" s="5"/>
+      <c r="M270" s="5"/>
+      <c r="N270" s="5"/>
+      <c r="O270" s="5"/>
+      <c r="P270" s="5"/>
+      <c r="Q270" s="5"/>
+      <c r="R270" s="5"/>
+      <c r="S270" s="5"/>
+      <c r="T270" s="5"/>
+      <c r="Y270" s="21"/>
     </row>
     <row r="271" spans="4:31" ht="18.75">
       <c r="D271" s="5"/>
-      <c r="E271" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="F271" s="25"/>
-      <c r="G271" s="25"/>
-      <c r="H271" s="25"/>
-      <c r="I271" s="25"/>
-      <c r="J271" s="25"/>
-      <c r="K271" s="25"/>
-      <c r="L271" s="25"/>
-      <c r="M271" s="25"/>
-      <c r="N271" s="25"/>
-      <c r="O271" s="25"/>
-      <c r="P271" s="25"/>
-      <c r="Q271" s="25"/>
-      <c r="R271" s="25"/>
-      <c r="S271" s="25"/>
-      <c r="T271" s="25"/>
-      <c r="U271" s="26"/>
-      <c r="V271" s="26"/>
-      <c r="W271" s="26"/>
-      <c r="X271" s="26"/>
-      <c r="Y271" s="27"/>
+      <c r="E271" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="F271" s="23"/>
+      <c r="G271" s="23"/>
+      <c r="H271" s="23"/>
+      <c r="I271" s="23"/>
+      <c r="J271" s="23"/>
+      <c r="K271" s="23"/>
+      <c r="L271" s="23"/>
+      <c r="M271" s="23"/>
+      <c r="N271" s="23"/>
+      <c r="O271" s="23"/>
+      <c r="P271" s="23"/>
+      <c r="Q271" s="23"/>
+      <c r="R271" s="23"/>
+      <c r="S271" s="23"/>
+      <c r="T271" s="23"/>
+      <c r="U271" s="24"/>
+      <c r="V271" s="24"/>
+      <c r="W271" s="24"/>
+      <c r="X271" s="24"/>
+      <c r="Y271" s="25"/>
     </row>
     <row r="272" spans="4:31" ht="18.75">
       <c r="D272" s="5"/>
@@ -11616,7 +11710,7 @@
     <row r="273" spans="4:27" ht="18.75">
       <c r="D273" s="5"/>
       <c r="E273" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
@@ -11637,7 +11731,7 @@
     <row r="274" spans="4:27" ht="18.75">
       <c r="D274" s="5"/>
       <c r="E274" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
@@ -11769,7 +11863,7 @@
       <c r="S280" s="5"/>
       <c r="T280" s="5"/>
       <c r="AA280" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="281" spans="4:27" ht="19.5">
@@ -11791,7 +11885,7 @@
       <c r="S281" s="5"/>
       <c r="T281" s="5"/>
       <c r="AA281" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="282" spans="4:27" ht="18.75">
@@ -12252,17 +12346,17 @@
     </row>
     <row r="309" spans="4:27">
       <c r="AA309" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="313" spans="4:27">
       <c r="E313" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="317" spans="4:27">
       <c r="D317" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
@@ -12288,17 +12382,17 @@
     </row>
     <row r="319" spans="4:27">
       <c r="D319" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="324" spans="4:4">
       <c r="D324" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="338" spans="3:25">
       <c r="D338" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="349" spans="3:25">
@@ -12360,595 +12454,590 @@
     </row>
     <row r="354" spans="5:23">
       <c r="E354" s="1" t="s">
-        <v>55</v>
+        <v>350</v>
       </c>
     </row>
     <row r="355" spans="5:23">
       <c r="F355" s="4" t="s">
-        <v>68</v>
+        <v>351</v>
       </c>
     </row>
     <row r="356" spans="5:23">
       <c r="F356" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="W356" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="358" spans="5:23">
+      <c r="E358" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="359" spans="5:23">
+      <c r="F359" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="360" spans="5:23">
+      <c r="F360" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="361" spans="5:23">
+      <c r="F361" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="363" spans="5:23">
+      <c r="E363" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="364" spans="5:23">
+      <c r="F364" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="365" spans="5:23">
+      <c r="F365" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="W365" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="358" spans="5:23">
-      <c r="F358" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="W358" s="1" t="s">
+    <row r="367" spans="5:23">
+      <c r="F367" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="W367" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="361" spans="5:23">
-      <c r="E361" s="1" t="s">
+    <row r="370" spans="5:23">
+      <c r="E370" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="362" spans="5:23">
-      <c r="F362" s="4" t="s">
+    <row r="371" spans="5:23">
+      <c r="F371" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="364" spans="5:23">
-      <c r="F364" s="1" t="s">
+    <row r="373" spans="5:23">
+      <c r="F373" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="W364" s="1" t="s">
+      <c r="W373" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="366" spans="5:23">
-      <c r="E366" s="1" t="s">
+    <row r="375" spans="5:23">
+      <c r="E375" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="367" spans="5:23">
-      <c r="F367" s="4" t="s">
+    <row r="376" spans="5:23">
+      <c r="F376" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="368" spans="5:23">
-      <c r="F368" s="4"/>
-    </row>
-    <row r="369" spans="5:15">
-      <c r="F369" s="12" t="s">
+    <row r="377" spans="5:23">
+      <c r="F377" s="4"/>
+    </row>
+    <row r="378" spans="5:23">
+      <c r="F378" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="370" spans="5:15">
-      <c r="F370" s="12"/>
-    </row>
-    <row r="371" spans="5:15">
-      <c r="E371" s="1" t="s">
+    <row r="379" spans="5:23">
+      <c r="F379" s="12"/>
+    </row>
+    <row r="380" spans="5:23">
+      <c r="E380" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="O371" s="1" t="s">
+      <c r="O380" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="372" spans="5:15">
-      <c r="F372" s="4" t="s">
+    <row r="381" spans="5:23">
+      <c r="F381" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="374" spans="5:15">
-      <c r="F374" s="4" t="s">
+    <row r="383" spans="5:23">
+      <c r="F383" s="4" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="376" spans="5:15">
-      <c r="E376" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="377" spans="5:15">
-      <c r="F377" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="379" spans="5:15">
-      <c r="F379" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="380" spans="5:15">
-      <c r="F380" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="382" spans="5:15">
-      <c r="F382" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="383" spans="5:15">
-      <c r="F383" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="385" spans="5:6">
       <c r="E385" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="386" spans="5:6">
       <c r="F386" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="387" spans="5:6">
-      <c r="F387" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="388" spans="5:6">
       <c r="F388" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="390" spans="5:6">
-      <c r="F390" s="10" t="s">
-        <v>121</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="389" spans="5:6">
+      <c r="F389" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="391" spans="5:6">
       <c r="F391" s="1" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
     </row>
     <row r="392" spans="5:6">
       <c r="F392" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="393" spans="5:6">
-      <c r="F393" s="1" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
     </row>
     <row r="394" spans="5:6">
-      <c r="F394" s="1" t="s">
-        <v>120</v>
+      <c r="E394" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="395" spans="5:6">
+      <c r="F395" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="396" spans="5:6">
       <c r="F396" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="397" spans="5:6">
       <c r="F397" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="398" spans="5:6">
-      <c r="F398" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="399" spans="5:6">
-      <c r="F399" s="1" t="s">
-        <v>102</v>
+      <c r="F399" s="10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="400" spans="5:6">
       <c r="F400" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="401" spans="6:6">
       <c r="F401" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="402" spans="6:6">
       <c r="F402" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="403" spans="6:6">
       <c r="F403" s="1" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="405" spans="6:6">
       <c r="F405" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="406" spans="6:6">
       <c r="F406" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="407" spans="6:6">
       <c r="F407" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="408" spans="6:6">
       <c r="F408" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="409" spans="6:6">
+      <c r="F409" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="410" spans="6:6">
       <c r="F410" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="411" spans="6:6">
       <c r="F411" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="412" spans="6:6">
       <c r="F412" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="413" spans="6:6">
-      <c r="F413" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="414" spans="6:6">
       <c r="F414" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="415" spans="6:6">
       <c r="F415" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="416" spans="6:6">
       <c r="F416" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="417" spans="5:6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="417" spans="6:6">
       <c r="F417" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="419" spans="5:6">
+    <row r="419" spans="6:6">
       <c r="F419" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="420" spans="6:6">
+      <c r="F420" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="421" spans="6:6">
+      <c r="F421" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="422" spans="6:6">
+      <c r="F422" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="423" spans="6:6">
+      <c r="F423" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="424" spans="6:6">
+      <c r="F424" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="425" spans="6:6">
+      <c r="F425" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="426" spans="6:6">
+      <c r="F426" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="428" spans="6:6">
+      <c r="F428" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="420" spans="5:6">
-      <c r="F420" s="1" t="s">
+    <row r="429" spans="6:6">
+      <c r="F429" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="421" spans="5:6">
-      <c r="F421" s="1" t="s">
+    <row r="430" spans="6:6">
+      <c r="F430" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="422" spans="5:6">
-      <c r="F422" s="1" t="s">
+    <row r="431" spans="6:6">
+      <c r="F431" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="425" spans="5:6">
-      <c r="E425" s="1" t="s">
+    <row r="434" spans="5:6">
+      <c r="E434" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="426" spans="5:6">
-      <c r="F426" s="4" t="s">
+    <row r="435" spans="5:6">
+      <c r="F435" s="4" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="427" spans="5:6">
-      <c r="F427" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="428" spans="5:6">
-      <c r="F428" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="429" spans="5:6">
-      <c r="F429" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="430" spans="5:6">
-      <c r="F430" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="432" spans="5:6">
-      <c r="F432" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="433" spans="5:6">
-      <c r="F433" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="434" spans="5:6">
-      <c r="F434" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="435" spans="5:6">
-      <c r="F435" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="436" spans="5:6">
       <c r="F436" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="437" spans="5:6">
+      <c r="F437" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="438" spans="5:6">
+      <c r="F438" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="439" spans="5:6">
-      <c r="E439" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="440" spans="5:6">
-      <c r="F440" s="4" t="s">
-        <v>133</v>
+      <c r="F439" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="441" spans="5:6">
+      <c r="F441" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="442" spans="5:6">
       <c r="F442" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="443" spans="5:6">
       <c r="F443" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="444" spans="5:6">
       <c r="F444" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="445" spans="5:6">
       <c r="F445" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="448" spans="5:6">
+      <c r="E448" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="449" spans="6:6">
+      <c r="F449" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="451" spans="6:6">
+      <c r="F451" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="452" spans="6:6">
+      <c r="F452" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="453" spans="6:6">
+      <c r="F453" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="454" spans="6:6">
+      <c r="F454" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="446" spans="5:6">
-      <c r="F446" s="1" t="s">
+    <row r="455" spans="6:6">
+      <c r="F455" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="447" spans="5:6">
-      <c r="F447" s="1" t="s">
+    <row r="456" spans="6:6">
+      <c r="F456" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="449" spans="5:6">
-      <c r="F449" s="1" t="s">
+    <row r="458" spans="6:6">
+      <c r="F458" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="450" spans="5:6">
-      <c r="F450" s="1" t="s">
+    <row r="459" spans="6:6">
+      <c r="F459" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="451" spans="5:6">
-      <c r="F451" s="1" t="s">
+    <row r="460" spans="6:6">
+      <c r="F460" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="452" spans="5:6">
-      <c r="F452" s="1" t="s">
+    <row r="461" spans="6:6">
+      <c r="F461" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="453" spans="5:6">
-      <c r="F453" s="1" t="s">
+    <row r="462" spans="6:6">
+      <c r="F462" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="454" spans="5:6">
-      <c r="F454" s="1" t="s">
+    <row r="463" spans="6:6">
+      <c r="F463" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="456" spans="5:6">
-      <c r="E456" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="457" spans="5:6">
-      <c r="F457" s="4" t="s">
+    <row r="465" spans="5:6">
+      <c r="E465" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="466" spans="5:6">
+      <c r="F466" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="459" spans="5:6">
-      <c r="F459" s="1" t="s">
+    <row r="468" spans="5:6">
+      <c r="F468" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="460" spans="5:6">
-      <c r="F460" s="1" t="s">
+    <row r="469" spans="5:6">
+      <c r="F469" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="461" spans="5:6">
-      <c r="F461" s="1" t="s">
+    <row r="470" spans="5:6">
+      <c r="F470" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="462" spans="5:6">
-      <c r="F462" s="1" t="s">
+    <row r="471" spans="5:6">
+      <c r="F471" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="463" spans="5:6">
-      <c r="F463" s="1" t="s">
+    <row r="472" spans="5:6">
+      <c r="F472" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="464" spans="5:6">
-      <c r="F464" s="1" t="s">
+    <row r="473" spans="5:6">
+      <c r="F473" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="465" spans="6:6">
-      <c r="F465" s="1" t="s">
+    <row r="474" spans="5:6">
+      <c r="F474" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="466" spans="6:6">
-      <c r="F466" s="1" t="s">
+    <row r="475" spans="5:6">
+      <c r="F475" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="467" spans="6:6">
-      <c r="F467" s="1" t="s">
+    <row r="476" spans="5:6">
+      <c r="F476" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="468" spans="6:6">
-      <c r="F468" s="1" t="s">
+    <row r="477" spans="5:6">
+      <c r="F477" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="469" spans="6:6">
-      <c r="F469" s="1" t="s">
+    <row r="478" spans="5:6">
+      <c r="F478" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="470" spans="6:6">
-      <c r="F470" s="1" t="s">
+    <row r="479" spans="5:6">
+      <c r="F479" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="471" spans="6:6">
-      <c r="F471" s="1" t="s">
+    <row r="480" spans="5:6">
+      <c r="F480" s="1" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="472" spans="6:6">
-      <c r="F472" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="473" spans="6:6">
-      <c r="F473" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="474" spans="6:6">
-      <c r="F474" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="475" spans="6:6">
-      <c r="F475" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="476" spans="6:6">
-      <c r="F476" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="477" spans="6:6">
-      <c r="F477" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="478" spans="6:6">
-      <c r="F478" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="479" spans="6:6">
-      <c r="F479" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="480" spans="6:6">
-      <c r="F480" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="481" spans="6:6">
       <c r="F481" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="482" spans="6:6">
       <c r="F482" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="483" spans="6:6">
       <c r="F483" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="484" spans="6:6">
       <c r="F484" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="485" spans="6:6">
       <c r="F485" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="486" spans="6:6">
       <c r="F486" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="487" spans="6:6">
       <c r="F487" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="488" spans="6:6">
       <c r="F488" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="489" spans="6:6">
       <c r="F489" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="490" spans="6:6">
       <c r="F490" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="491" spans="6:6">
+      <c r="F491" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="492" spans="6:6">
       <c r="F492" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="493" spans="6:6">
       <c r="F493" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="494" spans="6:6">
       <c r="F494" s="1" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="495" spans="6:6">
       <c r="F495" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="496" spans="6:6">
@@ -12971,502 +13060,542 @@
         <v>175</v>
       </c>
     </row>
+    <row r="501" spans="5:6">
+      <c r="F501" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
     <row r="502" spans="5:6">
-      <c r="E502" s="1" t="s">
-        <v>79</v>
+      <c r="F502" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="503" spans="5:6">
-      <c r="E503" s="1" t="s">
-        <v>77</v>
+      <c r="F503" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="504" spans="5:6">
-      <c r="E504" s="1" t="s">
-        <v>78</v>
+      <c r="F504" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="505" spans="5:6">
+      <c r="F505" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="506" spans="5:6">
-      <c r="E506" s="1" t="s">
-        <v>84</v>
+      <c r="F506" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="507" spans="5:6">
-      <c r="E507" s="1" t="s">
-        <v>80</v>
+      <c r="F507" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="508" spans="5:6">
-      <c r="E508" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="509" spans="5:6">
-      <c r="E509" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="510" spans="5:6">
-      <c r="E510" s="1" t="s">
-        <v>83</v>
+      <c r="F508" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="511" spans="5:6">
       <c r="E511" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="512" spans="5:6">
       <c r="E512" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="513" spans="4:25">
       <c r="E513" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="514" spans="4:25">
-      <c r="E514" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="515" spans="4:25">
       <c r="E515" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="516" spans="4:25">
       <c r="E516" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="517" spans="4:25">
+      <c r="E517" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="518" spans="4:25">
+      <c r="E518" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="519" spans="4:25">
+      <c r="E519" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="520" spans="4:25">
+      <c r="E520" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="521" spans="4:25">
+      <c r="E521" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="522" spans="4:25">
+      <c r="E522" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="523" spans="4:25">
+      <c r="E523" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="524" spans="4:25">
+      <c r="E524" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="525" spans="4:25">
+      <c r="E525" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="518" spans="4:25">
-      <c r="D518" s="2" t="s">
+    <row r="527" spans="4:25">
+      <c r="D527" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E518" s="2"/>
-      <c r="F518" s="2"/>
-      <c r="G518" s="2"/>
-      <c r="H518" s="2"/>
-      <c r="I518" s="2"/>
-      <c r="J518" s="2"/>
-      <c r="K518" s="2"/>
-      <c r="L518" s="2"/>
-      <c r="M518" s="2"/>
-      <c r="N518" s="2"/>
-      <c r="O518" s="2"/>
-      <c r="P518" s="2"/>
-      <c r="Q518" s="2"/>
-      <c r="R518" s="2"/>
-      <c r="S518" s="2"/>
-      <c r="T518" s="2"/>
-      <c r="U518" s="2"/>
-      <c r="V518" s="2"/>
-      <c r="W518" s="2"/>
-      <c r="X518" s="2"/>
-      <c r="Y518" s="2"/>
-    </row>
-    <row r="520" spans="4:25">
-      <c r="D520" s="1" t="s">
+      <c r="E527" s="2"/>
+      <c r="F527" s="2"/>
+      <c r="G527" s="2"/>
+      <c r="H527" s="2"/>
+      <c r="I527" s="2"/>
+      <c r="J527" s="2"/>
+      <c r="K527" s="2"/>
+      <c r="L527" s="2"/>
+      <c r="M527" s="2"/>
+      <c r="N527" s="2"/>
+      <c r="O527" s="2"/>
+      <c r="P527" s="2"/>
+      <c r="Q527" s="2"/>
+      <c r="R527" s="2"/>
+      <c r="S527" s="2"/>
+      <c r="T527" s="2"/>
+      <c r="U527" s="2"/>
+      <c r="V527" s="2"/>
+      <c r="W527" s="2"/>
+      <c r="X527" s="2"/>
+      <c r="Y527" s="2"/>
+    </row>
+    <row r="529" spans="4:24">
+      <c r="D529" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="522" spans="4:25">
-      <c r="D522" s="1" t="s">
+    <row r="531" spans="4:24">
+      <c r="D531" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="523" spans="4:25">
-      <c r="X523" s="1" t="s">
+    <row r="532" spans="4:24">
+      <c r="X532" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="525" spans="4:25">
-      <c r="R525" s="1" t="s">
+    <row r="534" spans="4:24">
+      <c r="R534" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="544" spans="4:4">
-      <c r="D544" s="1" t="s">
+    <row r="553" spans="4:4">
+      <c r="D553" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="563" spans="3:25">
-      <c r="D563" s="2" t="s">
+    <row r="572" spans="4:25">
+      <c r="D572" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E563" s="2"/>
-      <c r="F563" s="2"/>
-      <c r="G563" s="2"/>
-      <c r="H563" s="2"/>
-      <c r="I563" s="2"/>
-      <c r="J563" s="2"/>
-      <c r="K563" s="2"/>
-      <c r="L563" s="2"/>
-      <c r="M563" s="2"/>
-      <c r="N563" s="2"/>
-      <c r="O563" s="2"/>
-      <c r="P563" s="2"/>
-      <c r="Q563" s="2"/>
-      <c r="R563" s="2"/>
-      <c r="S563" s="2"/>
-      <c r="T563" s="2"/>
-      <c r="U563" s="2"/>
-      <c r="V563" s="2"/>
-      <c r="W563" s="2"/>
-      <c r="X563" s="2"/>
-      <c r="Y563" s="2"/>
-    </row>
-    <row r="565" spans="3:25">
-      <c r="D565" s="1" t="s">
+      <c r="E572" s="2"/>
+      <c r="F572" s="2"/>
+      <c r="G572" s="2"/>
+      <c r="H572" s="2"/>
+      <c r="I572" s="2"/>
+      <c r="J572" s="2"/>
+      <c r="K572" s="2"/>
+      <c r="L572" s="2"/>
+      <c r="M572" s="2"/>
+      <c r="N572" s="2"/>
+      <c r="O572" s="2"/>
+      <c r="P572" s="2"/>
+      <c r="Q572" s="2"/>
+      <c r="R572" s="2"/>
+      <c r="S572" s="2"/>
+      <c r="T572" s="2"/>
+      <c r="U572" s="2"/>
+      <c r="V572" s="2"/>
+      <c r="W572" s="2"/>
+      <c r="X572" s="2"/>
+      <c r="Y572" s="2"/>
+    </row>
+    <row r="574" spans="4:25">
+      <c r="D574" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="566" spans="3:25">
-      <c r="D566" s="1" t="s">
+    <row r="575" spans="4:25">
+      <c r="D575" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="567" spans="3:25">
-      <c r="E567" s="1" t="s">
+    <row r="576" spans="4:25">
+      <c r="E576" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F567" s="1" t="s">
+      <c r="F576" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="569" spans="3:25">
-      <c r="D569" s="1" t="s">
+    <row r="578" spans="3:25">
+      <c r="D578" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G569" s="1" t="s">
+      <c r="G578" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K569" s="1" t="s">
+      <c r="K578" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="571" spans="3:25">
-      <c r="D571" s="2" t="s">
+    <row r="580" spans="3:25">
+      <c r="D580" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E571" s="2"/>
-      <c r="F571" s="2"/>
-      <c r="G571" s="2"/>
-      <c r="H571" s="2"/>
-      <c r="I571" s="2"/>
-      <c r="J571" s="2"/>
-      <c r="K571" s="2"/>
-      <c r="L571" s="2"/>
-      <c r="M571" s="2"/>
-      <c r="N571" s="2"/>
-      <c r="O571" s="2"/>
-      <c r="P571" s="2"/>
-      <c r="Q571" s="2"/>
-      <c r="R571" s="2"/>
-      <c r="S571" s="2"/>
-      <c r="T571" s="2"/>
-      <c r="U571" s="2"/>
-      <c r="V571" s="2"/>
-      <c r="W571" s="2"/>
-      <c r="X571" s="2"/>
-      <c r="Y571" s="2"/>
-    </row>
-    <row r="573" spans="3:25">
-      <c r="D573" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="576" spans="3:25">
-      <c r="C576" s="9" t="s">
+      <c r="E580" s="2"/>
+      <c r="F580" s="2"/>
+      <c r="G580" s="2"/>
+      <c r="H580" s="2"/>
+      <c r="I580" s="2"/>
+      <c r="J580" s="2"/>
+      <c r="K580" s="2"/>
+      <c r="L580" s="2"/>
+      <c r="M580" s="2"/>
+      <c r="N580" s="2"/>
+      <c r="O580" s="2"/>
+      <c r="P580" s="2"/>
+      <c r="Q580" s="2"/>
+      <c r="R580" s="2"/>
+      <c r="S580" s="2"/>
+      <c r="T580" s="2"/>
+      <c r="U580" s="2"/>
+      <c r="V580" s="2"/>
+      <c r="W580" s="2"/>
+      <c r="X580" s="2"/>
+      <c r="Y580" s="2"/>
+    </row>
+    <row r="582" spans="3:25">
+      <c r="D582" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="585" spans="3:25">
+      <c r="C585" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D576" s="9"/>
-      <c r="E576" s="9"/>
-      <c r="F576" s="9"/>
-      <c r="G576" s="9"/>
-      <c r="H576" s="9"/>
-      <c r="I576" s="9"/>
-      <c r="J576" s="9"/>
-      <c r="K576" s="9"/>
-      <c r="L576" s="9"/>
-      <c r="M576" s="9"/>
-      <c r="N576" s="9"/>
-      <c r="O576" s="9"/>
-      <c r="P576" s="9"/>
-      <c r="Q576" s="9"/>
-      <c r="R576" s="9"/>
-      <c r="S576" s="9"/>
-      <c r="T576" s="9"/>
-      <c r="U576" s="9"/>
-      <c r="V576" s="9"/>
-      <c r="W576" s="9"/>
-      <c r="X576" s="9"/>
-    </row>
-    <row r="578" spans="4:22">
-      <c r="D578" s="1" t="s">
+      <c r="D585" s="9"/>
+      <c r="E585" s="9"/>
+      <c r="F585" s="9"/>
+      <c r="G585" s="9"/>
+      <c r="H585" s="9"/>
+      <c r="I585" s="9"/>
+      <c r="J585" s="9"/>
+      <c r="K585" s="9"/>
+      <c r="L585" s="9"/>
+      <c r="M585" s="9"/>
+      <c r="N585" s="9"/>
+      <c r="O585" s="9"/>
+      <c r="P585" s="9"/>
+      <c r="Q585" s="9"/>
+      <c r="R585" s="9"/>
+      <c r="S585" s="9"/>
+      <c r="T585" s="9"/>
+      <c r="U585" s="9"/>
+      <c r="V585" s="9"/>
+      <c r="W585" s="9"/>
+      <c r="X585" s="9"/>
+    </row>
+    <row r="587" spans="3:25">
+      <c r="D587" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="V578" s="4" t="s">
+      <c r="V587" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="622" spans="4:6">
-      <c r="D622" s="1" t="s">
+    <row r="631" spans="4:6">
+      <c r="D631" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="623" spans="4:6">
-      <c r="E623" s="1" t="s">
+    <row r="632" spans="4:6">
+      <c r="E632" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="624" spans="4:6">
-      <c r="F624" s="1" t="s">
+    <row r="633" spans="4:6">
+      <c r="F633" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="625" spans="4:25">
-      <c r="F625" s="1" t="s">
+    <row r="634" spans="4:6">
+      <c r="F634" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="626" spans="4:25">
-      <c r="F626" s="1" t="s">
+    <row r="635" spans="4:6">
+      <c r="F635" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="627" spans="4:25">
-      <c r="F627" s="1" t="s">
+    <row r="636" spans="4:6">
+      <c r="F636" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="628" spans="4:25">
-      <c r="F628" s="1" t="s">
+    <row r="637" spans="4:6">
+      <c r="F637" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="629" spans="4:25">
-      <c r="F629" s="1" t="s">
+    <row r="638" spans="4:6">
+      <c r="F638" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="630" spans="4:25">
-      <c r="F630" s="1" t="s">
+    <row r="639" spans="4:6">
+      <c r="F639" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="631" spans="4:25">
-      <c r="F631" s="1" t="s">
+    <row r="640" spans="4:6">
+      <c r="F640" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="632" spans="4:25">
-      <c r="F632" s="1" t="s">
+    <row r="641" spans="4:25">
+      <c r="F641" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="634" spans="4:25">
-      <c r="D634" s="1" t="s">
+    <row r="643" spans="4:25">
+      <c r="D643" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="636" spans="4:25">
-      <c r="D636" s="2" t="s">
+    <row r="645" spans="4:25">
+      <c r="D645" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E636" s="2"/>
-      <c r="F636" s="2"/>
-      <c r="G636" s="2"/>
-      <c r="H636" s="2"/>
-      <c r="I636" s="2"/>
-      <c r="J636" s="2"/>
-      <c r="K636" s="2"/>
-      <c r="L636" s="2"/>
-      <c r="M636" s="2"/>
-      <c r="N636" s="2"/>
-      <c r="O636" s="2"/>
-      <c r="P636" s="2"/>
-      <c r="Q636" s="2"/>
-      <c r="R636" s="2"/>
-      <c r="S636" s="2"/>
-      <c r="T636" s="2"/>
-      <c r="U636" s="2"/>
-      <c r="V636" s="2"/>
-      <c r="W636" s="2"/>
-      <c r="X636" s="2"/>
-      <c r="Y636" s="2"/>
-    </row>
-    <row r="638" spans="4:25">
-      <c r="D638" s="1" t="s">
+      <c r="E645" s="2"/>
+      <c r="F645" s="2"/>
+      <c r="G645" s="2"/>
+      <c r="H645" s="2"/>
+      <c r="I645" s="2"/>
+      <c r="J645" s="2"/>
+      <c r="K645" s="2"/>
+      <c r="L645" s="2"/>
+      <c r="M645" s="2"/>
+      <c r="N645" s="2"/>
+      <c r="O645" s="2"/>
+      <c r="P645" s="2"/>
+      <c r="Q645" s="2"/>
+      <c r="R645" s="2"/>
+      <c r="S645" s="2"/>
+      <c r="T645" s="2"/>
+      <c r="U645" s="2"/>
+      <c r="V645" s="2"/>
+      <c r="W645" s="2"/>
+      <c r="X645" s="2"/>
+      <c r="Y645" s="2"/>
+    </row>
+    <row r="647" spans="4:25">
+      <c r="D647" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="645" spans="4:25">
-      <c r="D645" s="1" t="s">
+    <row r="654" spans="4:25">
+      <c r="D654" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="653" spans="4:25">
-      <c r="D653" s="2" t="s">
+    <row r="662" spans="4:25">
+      <c r="D662" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E653" s="2"/>
-      <c r="F653" s="2"/>
-      <c r="G653" s="2"/>
-      <c r="H653" s="2"/>
-      <c r="I653" s="2"/>
-      <c r="J653" s="2"/>
-      <c r="K653" s="2"/>
-      <c r="L653" s="2"/>
-      <c r="M653" s="2"/>
-      <c r="N653" s="2"/>
-      <c r="O653" s="2"/>
-      <c r="P653" s="2"/>
-      <c r="Q653" s="2"/>
-      <c r="R653" s="2"/>
-      <c r="S653" s="2"/>
-      <c r="T653" s="2"/>
-      <c r="U653" s="2"/>
-      <c r="V653" s="2" t="s">
+      <c r="E662" s="2"/>
+      <c r="F662" s="2"/>
+      <c r="G662" s="2"/>
+      <c r="H662" s="2"/>
+      <c r="I662" s="2"/>
+      <c r="J662" s="2"/>
+      <c r="K662" s="2"/>
+      <c r="L662" s="2"/>
+      <c r="M662" s="2"/>
+      <c r="N662" s="2"/>
+      <c r="O662" s="2"/>
+      <c r="P662" s="2"/>
+      <c r="Q662" s="2"/>
+      <c r="R662" s="2"/>
+      <c r="S662" s="2"/>
+      <c r="T662" s="2"/>
+      <c r="U662" s="2"/>
+      <c r="V662" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="W653" s="2"/>
-      <c r="X653" s="2"/>
-      <c r="Y653" s="2"/>
-    </row>
-    <row r="655" spans="4:25">
-      <c r="D655" s="1" t="s">
+      <c r="W662" s="2"/>
+      <c r="X662" s="2"/>
+      <c r="Y662" s="2"/>
+    </row>
+    <row r="664" spans="4:25">
+      <c r="D664" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="656" spans="4:25">
-      <c r="D656" s="1" t="s">
+    <row r="665" spans="4:25">
+      <c r="D665" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="669" spans="4:25">
-      <c r="D669" s="2" t="s">
+    <row r="678" spans="4:25">
+      <c r="D678" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E669" s="2"/>
-      <c r="F669" s="2"/>
-      <c r="G669" s="2"/>
-      <c r="H669" s="2"/>
-      <c r="I669" s="2"/>
-      <c r="J669" s="2"/>
-      <c r="K669" s="2"/>
-      <c r="L669" s="2"/>
-      <c r="M669" s="2"/>
-      <c r="N669" s="2"/>
-      <c r="O669" s="2"/>
-      <c r="P669" s="2"/>
-      <c r="Q669" s="2"/>
-      <c r="R669" s="2"/>
-      <c r="S669" s="2"/>
-      <c r="T669" s="2"/>
-      <c r="U669" s="2"/>
-      <c r="V669" s="2"/>
-      <c r="W669" s="2"/>
-      <c r="X669" s="2"/>
-      <c r="Y669" s="2"/>
-    </row>
-    <row r="671" spans="4:25">
-      <c r="D671" s="1" t="s">
+      <c r="E678" s="2"/>
+      <c r="F678" s="2"/>
+      <c r="G678" s="2"/>
+      <c r="H678" s="2"/>
+      <c r="I678" s="2"/>
+      <c r="J678" s="2"/>
+      <c r="K678" s="2"/>
+      <c r="L678" s="2"/>
+      <c r="M678" s="2"/>
+      <c r="N678" s="2"/>
+      <c r="O678" s="2"/>
+      <c r="P678" s="2"/>
+      <c r="Q678" s="2"/>
+      <c r="R678" s="2"/>
+      <c r="S678" s="2"/>
+      <c r="T678" s="2"/>
+      <c r="U678" s="2"/>
+      <c r="V678" s="2"/>
+      <c r="W678" s="2"/>
+      <c r="X678" s="2"/>
+      <c r="Y678" s="2"/>
+    </row>
+    <row r="680" spans="4:25">
+      <c r="D680" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="683" spans="4:25">
-      <c r="D683" s="2" t="s">
+    <row r="692" spans="4:25">
+      <c r="D692" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E683" s="2"/>
-      <c r="F683" s="2"/>
-      <c r="G683" s="2"/>
-      <c r="H683" s="2"/>
-      <c r="I683" s="2"/>
-      <c r="J683" s="2"/>
-      <c r="K683" s="2"/>
-      <c r="L683" s="2"/>
-      <c r="M683" s="2"/>
-      <c r="N683" s="2"/>
-      <c r="O683" s="2"/>
-      <c r="P683" s="2"/>
-      <c r="Q683" s="2"/>
-      <c r="R683" s="2"/>
-      <c r="S683" s="2"/>
-      <c r="T683" s="2"/>
-      <c r="U683" s="2"/>
-      <c r="V683" s="2"/>
-      <c r="W683" s="2"/>
-      <c r="X683" s="2"/>
-      <c r="Y683" s="2"/>
-    </row>
-    <row r="685" spans="4:25">
-      <c r="D685" s="1" t="s">
+      <c r="E692" s="2"/>
+      <c r="F692" s="2"/>
+      <c r="G692" s="2"/>
+      <c r="H692" s="2"/>
+      <c r="I692" s="2"/>
+      <c r="J692" s="2"/>
+      <c r="K692" s="2"/>
+      <c r="L692" s="2"/>
+      <c r="M692" s="2"/>
+      <c r="N692" s="2"/>
+      <c r="O692" s="2"/>
+      <c r="P692" s="2"/>
+      <c r="Q692" s="2"/>
+      <c r="R692" s="2"/>
+      <c r="S692" s="2"/>
+      <c r="T692" s="2"/>
+      <c r="U692" s="2"/>
+      <c r="V692" s="2"/>
+      <c r="W692" s="2"/>
+      <c r="X692" s="2"/>
+      <c r="Y692" s="2"/>
+    </row>
+    <row r="694" spans="4:25">
+      <c r="D694" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="687" spans="4:25">
-      <c r="D687" s="2" t="s">
+    <row r="696" spans="4:25">
+      <c r="D696" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E687" s="2"/>
-      <c r="F687" s="2"/>
-      <c r="G687" s="2"/>
-      <c r="H687" s="2"/>
-      <c r="I687" s="2"/>
-      <c r="J687" s="2"/>
-      <c r="K687" s="2"/>
-      <c r="L687" s="2"/>
-      <c r="M687" s="2"/>
-      <c r="N687" s="2"/>
-      <c r="O687" s="2"/>
-      <c r="P687" s="2"/>
-      <c r="Q687" s="2"/>
-      <c r="R687" s="2"/>
-      <c r="S687" s="2"/>
-      <c r="T687" s="2"/>
-      <c r="U687" s="2"/>
-      <c r="V687" s="2"/>
-      <c r="W687" s="2"/>
-      <c r="X687" s="2"/>
-      <c r="Y687" s="2"/>
-    </row>
-    <row r="689" spans="4:25">
-      <c r="D689" s="1" t="s">
+      <c r="E696" s="2"/>
+      <c r="F696" s="2"/>
+      <c r="G696" s="2"/>
+      <c r="H696" s="2"/>
+      <c r="I696" s="2"/>
+      <c r="J696" s="2"/>
+      <c r="K696" s="2"/>
+      <c r="L696" s="2"/>
+      <c r="M696" s="2"/>
+      <c r="N696" s="2"/>
+      <c r="O696" s="2"/>
+      <c r="P696" s="2"/>
+      <c r="Q696" s="2"/>
+      <c r="R696" s="2"/>
+      <c r="S696" s="2"/>
+      <c r="T696" s="2"/>
+      <c r="U696" s="2"/>
+      <c r="V696" s="2"/>
+      <c r="W696" s="2"/>
+      <c r="X696" s="2"/>
+      <c r="Y696" s="2"/>
+    </row>
+    <row r="698" spans="4:25">
+      <c r="D698" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="691" spans="4:25">
-      <c r="D691" s="2" t="s">
+    <row r="700" spans="4:25">
+      <c r="D700" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E691" s="2"/>
-      <c r="F691" s="2"/>
-      <c r="G691" s="2"/>
-      <c r="H691" s="2"/>
-      <c r="I691" s="2"/>
-      <c r="J691" s="2"/>
-      <c r="K691" s="2"/>
-      <c r="L691" s="2"/>
-      <c r="M691" s="2"/>
-      <c r="N691" s="2"/>
-      <c r="O691" s="2"/>
-      <c r="P691" s="2"/>
-      <c r="Q691" s="2"/>
-      <c r="R691" s="2"/>
-      <c r="S691" s="2"/>
-      <c r="T691" s="2"/>
-      <c r="U691" s="2"/>
-      <c r="V691" s="2"/>
-      <c r="W691" s="2"/>
-      <c r="X691" s="2"/>
-      <c r="Y691" s="2"/>
-    </row>
-    <row r="693" spans="4:25">
-      <c r="D693" s="1" t="s">
+      <c r="E700" s="2"/>
+      <c r="F700" s="2"/>
+      <c r="G700" s="2"/>
+      <c r="H700" s="2"/>
+      <c r="I700" s="2"/>
+      <c r="J700" s="2"/>
+      <c r="K700" s="2"/>
+      <c r="L700" s="2"/>
+      <c r="M700" s="2"/>
+      <c r="N700" s="2"/>
+      <c r="O700" s="2"/>
+      <c r="P700" s="2"/>
+      <c r="Q700" s="2"/>
+      <c r="R700" s="2"/>
+      <c r="S700" s="2"/>
+      <c r="T700" s="2"/>
+      <c r="U700" s="2"/>
+      <c r="V700" s="2"/>
+      <c r="W700" s="2"/>
+      <c r="X700" s="2"/>
+      <c r="Y700" s="2"/>
+    </row>
+    <row r="702" spans="4:25">
+      <c r="D702" s="1" t="s">
         <v>217</v>
       </c>
     </row>
@@ -13500,383 +13629,383 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22">
-      <c r="B1" s="28" t="s">
-        <v>350</v>
+      <c r="B1" s="26" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="2:22">
       <c r="F2" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="2:22">
       <c r="F3" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="2:22">
       <c r="V9" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="6:19">
       <c r="S39" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="6:19">
       <c r="F46" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="22:39">
       <c r="V49" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="22:39">
       <c r="V50" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="22:39">
       <c r="W51" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="X51" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM51" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="X51" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="AM51" s="5" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="52" spans="22:39">
       <c r="W52" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z52" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM52" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="Z52" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="AM52" s="5" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="53" spans="22:39">
       <c r="W53" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z53" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AM53" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="22:39">
       <c r="W54" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z54" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM54" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="22:39">
       <c r="W55" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z55" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AM55" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="22:39">
       <c r="W56" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z56" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM56" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="22:39">
       <c r="W57" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z57" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AM57" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="22:39">
       <c r="W58" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z58" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM58" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="22:39">
       <c r="W59" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z59" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AM59" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60" spans="22:39">
       <c r="W60" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z60" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM60" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" spans="22:39">
       <c r="W61" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z61" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AM61" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="22:39">
       <c r="W62" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z62" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM62" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="22:39">
       <c r="W63" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z63" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AM63" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" spans="22:39">
       <c r="W64" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z64" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM64" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" spans="6:39">
       <c r="W65" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z65" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AM65" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="6:39">
       <c r="W66" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z66" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM66" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="6:39">
       <c r="W67" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z67" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AM67" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="6:39">
       <c r="W68" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z68" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM68" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="6:39">
       <c r="W69" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z69" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AM69" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="6:39">
       <c r="W70" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Z70" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AM70" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="6:39">
       <c r="W71" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="6:39">
       <c r="F74" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="16:16">
       <c r="P87" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="16:16">
       <c r="P89" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="16:16">
       <c r="P91" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="16:16">
       <c r="P92" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="16:16">
       <c r="P93" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="100" spans="17:19">
       <c r="S100" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="103" spans="17:19">
       <c r="Q103" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="104" spans="17:19">
       <c r="Q104" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="105" spans="17:19">
       <c r="Q105" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="106" spans="17:19">
       <c r="Q106" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="107" spans="17:19">
       <c r="Q107" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="108" spans="17:19">
       <c r="Q108" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="109" spans="17:19">
       <c r="Q109" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="110" spans="17:19">
       <c r="Q110" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="17:17">
       <c r="Q113" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="114" spans="17:17">
       <c r="Q114" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="115" spans="17:17">
       <c r="Q115" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="17:17">
       <c r="Q116" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117" spans="17:17">
       <c r="Q117" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" spans="17:17">
       <c r="Q118" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="119" spans="17:17">
       <c r="Q119" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="120" spans="17:17">
       <c r="Q120" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
